--- a/HW2/KrekelEtAl2004-Wilmott-BasketOption.xlsx
+++ b/HW2/KrekelEtAl2004-Wilmott-BasketOption.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\PyfengForPapers\ipynb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\27261\Desktop\3_Courses in PHBS\3_09_AppliedStochasticProcess\HW\PHBS_ASP_2023\HW2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91700B55-2216-40B1-840D-29317A4B5C32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F71062D-89DF-49D3-8D5D-EA4DD488D806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="1620" windowWidth="16476" windowHeight="12852" activeTab="1" xr2:uid="{40D57F48-2E8F-4F83-A17E-476FA0AEE963}"/>
+    <workbookView xWindow="4480" yWindow="850" windowWidth="19200" windowHeight="11250" activeTab="1" xr2:uid="{40D57F48-2E8F-4F83-A17E-476FA0AEE963}"/>
   </bookViews>
   <sheets>
     <sheet name="Param" sheetId="6" r:id="rId1"/>
@@ -127,15 +127,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="0.0000000"/>
+    <numFmt numFmtId="176" formatCode="0.0000"/>
+    <numFmt numFmtId="177" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -163,11 +170,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -183,7 +190,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -488,7 +495,7 @@
       <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -665,7 +672,9 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -674,20 +683,20 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -918,6 +927,7 @@
       <c r="J8" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -930,16 +940,16 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.58203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -1327,6 +1337,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1339,7 +1350,7 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1693,6 +1704,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1705,16 +1717,16 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.58203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -2102,6 +2114,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2114,16 +2127,16 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.58203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -2511,6 +2524,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>